--- a/relatorios/repasses_liberados/dentistas/10294760474/2023-08-25_relatorio_repasses_10294760474.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10294760474/2023-08-25_relatorio_repasses_10294760474.xlsx
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N429">
         <v>0</v>
@@ -19937,7 +19937,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N431">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10294760474/2023-08-25_relatorio_repasses_10294760474.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10294760474/2023-08-25_relatorio_repasses_10294760474.xlsx
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N49">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3305,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N52">
-        <v>7.244999999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3349,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N57">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3569,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4361,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N76">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4977,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N90">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5681,10 +5681,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N106">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5813,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5989,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6033,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N114">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N116">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6473,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N124">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N127">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7397,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N145">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7617,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N150">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8013,10 +8013,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N171">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8585,10 +8585,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N172">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9157,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N185">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9201,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N186">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9949,10 +9949,10 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N203">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9993,10 +9993,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N204">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10081,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N206">
-        <v>0.534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10697,10 +10697,10 @@
         <v>1</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N220">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -15845,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16285,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17121,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17165,7 +17165,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18309,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -18573,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -18661,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19145,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N429">
         <v>0</v>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -21433,7 +21433,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N464">
         <v>0</v>
